--- a/data/trans_orig/P64E-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P64E-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>2929</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7639</v>
+        <v>7963</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01203368937588869</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003463148051222446</v>
+        <v>0.003477409492728786</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03138641349901286</v>
+        <v>0.03271768653206295</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -778,19 +778,19 @@
         <v>2929</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7763</v>
+        <v>7948</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006337070171107037</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001829818869411768</v>
+        <v>0.001814458166572687</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01679807610050573</v>
+        <v>0.01719808392813449</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>3760</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9524</v>
+        <v>9337</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01544993357039424</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003675960534996465</v>
+        <v>0.003688193490308181</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03913372122193886</v>
+        <v>0.03836456330342829</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4881</v>
+        <v>5319</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.004462619858134031</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02230936008343559</v>
+        <v>0.02431400972679517</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -849,19 +849,19 @@
         <v>4737</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1764</v>
+        <v>1825</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10573</v>
+        <v>11281</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01024865735766169</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.003817333894534157</v>
+        <v>0.003949378683086434</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02287756325712447</v>
+        <v>0.0244094791301386</v>
       </c>
     </row>
     <row r="6">
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5057</v>
+        <v>4424</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.003623698460667036</v>
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02077859598719758</v>
+        <v>0.01817557528838111</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5264</v>
+        <v>5036</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.001908278559208172</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01139071063713651</v>
+        <v>0.01089763818683285</v>
       </c>
     </row>
     <row r="7">
@@ -941,19 +941,19 @@
         <v>18184</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10926</v>
+        <v>10971</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28182</v>
+        <v>27337</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07471583713855809</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04489303143462631</v>
+        <v>0.04507983108821301</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1157927597484901</v>
+        <v>0.1123214613509722</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -962,19 +962,19 @@
         <v>11040</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5575</v>
+        <v>5382</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19851</v>
+        <v>19963</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05046307134955089</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02548296851567781</v>
+        <v>0.02460185930290731</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09073606692678983</v>
+        <v>0.09124634482410937</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>28</v>
@@ -983,19 +983,19 @@
         <v>29225</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20132</v>
+        <v>20075</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>40720</v>
+        <v>41160</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06323483849822824</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0435611180692877</v>
+        <v>0.04343833733424082</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08810847225245247</v>
+        <v>0.0890605083803644</v>
       </c>
     </row>
     <row r="8">
@@ -1012,19 +1012,19 @@
         <v>217624</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>206755</v>
+        <v>207107</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>226085</v>
+        <v>225984</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8941768414544919</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8495197938882959</v>
+        <v>0.850965349021485</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.92894144938037</v>
+        <v>0.9285271310987692</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>190</v>
@@ -1033,19 +1033,19 @@
         <v>206765</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>198340</v>
+        <v>197811</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>212718</v>
+        <v>212303</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9450743087923151</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9065639307843562</v>
+        <v>0.9041479965676372</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9722840392038578</v>
+        <v>0.9703865895627136</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>393</v>
@@ -1054,19 +1054,19 @@
         <v>424388</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>411371</v>
+        <v>411859</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>435005</v>
+        <v>435486</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9182711554137949</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8901054925118856</v>
+        <v>0.8911603210246584</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9412426621087516</v>
+        <v>0.9422845938270453</v>
       </c>
     </row>
     <row r="9">
@@ -1158,19 +1158,19 @@
         <v>3881</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10726</v>
+        <v>10980</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006099196264222259</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001393398965424894</v>
+        <v>0.001398299102382028</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01685822169174016</v>
+        <v>0.01725715420253067</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6873</v>
+        <v>6854</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006817018461848308</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02389608622595004</v>
+        <v>0.02382839831633024</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -1200,19 +1200,19 @@
         <v>5841</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1955</v>
+        <v>1964</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12790</v>
+        <v>13714</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006322673842180593</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002115918571184045</v>
+        <v>0.002125461617751082</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01384325083619175</v>
+        <v>0.01484407097416784</v>
       </c>
     </row>
     <row r="11">
@@ -1229,19 +1229,19 @@
         <v>2919</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8776</v>
+        <v>7870</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.00458766311806514</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.001509148519642144</v>
+        <v>0.001495544384389161</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01379326355958367</v>
+        <v>0.0123687098863849</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9593</v>
+        <v>9436</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.009753614725235085</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03335336709167624</v>
+        <v>0.03280712963283985</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -1271,19 +1271,19 @@
         <v>5724</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1976</v>
+        <v>1950</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>13202</v>
+        <v>12616</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.006195964389380416</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002138817082484878</v>
+        <v>0.0021108853384901</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01429000511387582</v>
+        <v>0.01365511802447799</v>
       </c>
     </row>
     <row r="12">
@@ -1300,19 +1300,19 @@
         <v>11209</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5844</v>
+        <v>5847</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19729</v>
+        <v>20230</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01761734000550641</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.009184482022554927</v>
+        <v>0.009189034528011154</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03100782442152319</v>
+        <v>0.03179537361331502</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1321,19 +1321,19 @@
         <v>3081</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8291</v>
+        <v>8077</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01071318245583552</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.00342559394791029</v>
+        <v>0.003401063326509417</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02882589732311759</v>
+        <v>0.02808222652981591</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>14</v>
@@ -1342,19 +1342,19 @@
         <v>14291</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7578</v>
+        <v>8200</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>22986</v>
+        <v>23962</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0154678879376463</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.008202288029947996</v>
+        <v>0.008875849131692683</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02487985241192645</v>
+        <v>0.02593646880882476</v>
       </c>
     </row>
     <row r="13">
@@ -1371,19 +1371,19 @@
         <v>59860</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>47461</v>
+        <v>45849</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>75970</v>
+        <v>76253</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0940817548560943</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07459466966470414</v>
+        <v>0.07206000202939684</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1194014223346268</v>
+        <v>0.1198469819512817</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -1392,19 +1392,19 @@
         <v>21026</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13804</v>
+        <v>13251</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32587</v>
+        <v>31893</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07310126450761899</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04799166018608658</v>
+        <v>0.04606965153897359</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1132932997722979</v>
+        <v>0.11088155394123</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>80</v>
@@ -1413,19 +1413,19 @@
         <v>80886</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>64786</v>
+        <v>65164</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>102608</v>
+        <v>100183</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08754995745144226</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07012359567587016</v>
+        <v>0.07053195768331119</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1110613746196145</v>
+        <v>0.1084368189045696</v>
       </c>
     </row>
     <row r="14">
@@ -1442,19 +1442,19 @@
         <v>558387</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>539309</v>
+        <v>538677</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>573774</v>
+        <v>573440</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8776140457561119</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8476297176986611</v>
+        <v>0.8466360667992577</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9017972655836535</v>
+        <v>0.9012718627376834</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>247</v>
@@ -1463,19 +1463,19 @@
         <v>258757</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>246277</v>
+        <v>246031</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>268136</v>
+        <v>268846</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8996149198494621</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8562247317653301</v>
+        <v>0.8553694626400258</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9322221413438935</v>
+        <v>0.9346901165244089</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>777</v>
@@ -1484,19 +1484,19 @@
         <v>817144</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>794926</v>
+        <v>796578</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>835230</v>
+        <v>837398</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8844635163793504</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8604146063044996</v>
+        <v>0.8622033666896382</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9040391708276285</v>
+        <v>0.9063854758328126</v>
       </c>
     </row>
     <row r="15">
@@ -1588,19 +1588,19 @@
         <v>12784</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6946</v>
+        <v>6967</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21196</v>
+        <v>21425</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01822019963021182</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009900149526587267</v>
+        <v>0.009929151249116037</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03020907313773351</v>
+        <v>0.03053609885164036</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1609,19 +1609,19 @@
         <v>4840</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1827</v>
+        <v>1006</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10138</v>
+        <v>10616</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01380291800016146</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005210103931525874</v>
+        <v>0.002868567842498795</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02890992274547191</v>
+        <v>0.03027380027757227</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -1630,19 +1630,19 @@
         <v>17624</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10769</v>
+        <v>10156</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>27203</v>
+        <v>26585</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01674814268895218</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01023412158372817</v>
+        <v>0.009651104525543004</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02585070526091994</v>
+        <v>0.02526316122039989</v>
       </c>
     </row>
     <row r="17">
@@ -1659,19 +1659,19 @@
         <v>19995</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11878</v>
+        <v>11733</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>31821</v>
+        <v>32190</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02849777950278728</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01692907371388366</v>
+        <v>0.01672272850702188</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04535271883140527</v>
+        <v>0.04587848230286797</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -1680,19 +1680,19 @@
         <v>6950</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2994</v>
+        <v>2977</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14811</v>
+        <v>13070</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01981955107685142</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.008537890711769469</v>
+        <v>0.008489420331914181</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04223540295790959</v>
+        <v>0.03727037248388724</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>24</v>
@@ -1701,19 +1701,19 @@
         <v>26945</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>17316</v>
+        <v>18556</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>38956</v>
+        <v>39997</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02560576412723833</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0164550497697575</v>
+        <v>0.01763382019288357</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03701931708317272</v>
+        <v>0.03800876091661717</v>
       </c>
     </row>
     <row r="18">
@@ -1730,19 +1730,19 @@
         <v>17942</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10716</v>
+        <v>11395</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>27032</v>
+        <v>27511</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02557254039710605</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01527284790499907</v>
+        <v>0.01624135405673317</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03852748056386983</v>
+        <v>0.03920974731491352</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -1751,19 +1751,19 @@
         <v>2800</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0</v>
+        <v>802</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7322</v>
+        <v>8043</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.007985795886760939</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0</v>
+        <v>0.002285877102663531</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02088040861189195</v>
+        <v>0.02293491153119399</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>21</v>
@@ -1772,19 +1772,19 @@
         <v>20743</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>12822</v>
+        <v>13377</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>31598</v>
+        <v>30565</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01971176639653182</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01218509940062671</v>
+        <v>0.01271249495929796</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03002700190332529</v>
+        <v>0.02904598271848592</v>
       </c>
     </row>
     <row r="19">
@@ -1801,19 +1801,19 @@
         <v>122305</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>102069</v>
+        <v>102593</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>145175</v>
+        <v>144191</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1743159589916998</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1454746990766689</v>
+        <v>0.146221534713307</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2069116755045372</v>
+        <v>0.2055098353670749</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>26</v>
@@ -1822,19 +1822,19 @@
         <v>27085</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>18238</v>
+        <v>19241</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>38207</v>
+        <v>39642</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07723651295765747</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05200672127409056</v>
+        <v>0.05486637943659094</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1089497319590531</v>
+        <v>0.1130419026257462</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>144</v>
@@ -1843,19 +1843,19 @@
         <v>149390</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>127719</v>
+        <v>128297</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>174339</v>
+        <v>173884</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1419642811145473</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1213701210726537</v>
+        <v>0.1219192835830357</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1656729729982831</v>
+        <v>0.1652403043513711</v>
       </c>
     </row>
     <row r="20">
@@ -1872,19 +1872,19 @@
         <v>528601</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>503930</v>
+        <v>505558</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>550976</v>
+        <v>551849</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.753393521478195</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.718231048177784</v>
+        <v>0.7205502388669699</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7852837608232631</v>
+        <v>0.7865272093257732</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>300</v>
@@ -1893,19 +1893,19 @@
         <v>309004</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>295109</v>
+        <v>295178</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>319530</v>
+        <v>319255</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8811552220785687</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8415315611973885</v>
+        <v>0.8417279617532981</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9111692796538222</v>
+        <v>0.9103861447131741</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>810</v>
@@ -1914,19 +1914,19 @@
         <v>837606</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>809581</v>
+        <v>811365</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>864031</v>
+        <v>863812</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7959700456727303</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7693382632626843</v>
+        <v>0.7710339674958413</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8210820457273396</v>
+        <v>0.8208740178593305</v>
       </c>
     </row>
     <row r="21">
@@ -2018,19 +2018,19 @@
         <v>11196</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5641</v>
+        <v>5669</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>21359</v>
+        <v>20345</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03772225771227729</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01900552637153665</v>
+        <v>0.01909945085027296</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07196170489119059</v>
+        <v>0.06854629592437091</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -2039,19 +2039,19 @@
         <v>2798</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7512</v>
+        <v>7499</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0179524794299036</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.005638535504547858</v>
+        <v>0.005609747607914688</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04819427109465269</v>
+        <v>0.04811105229155314</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -2060,19 +2060,19 @@
         <v>13995</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7498</v>
+        <v>7130</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>23588</v>
+        <v>23167</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03091474975566698</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01656257358348795</v>
+        <v>0.01575153975597832</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05210683031925345</v>
+        <v>0.05117635855451458</v>
       </c>
     </row>
     <row r="23">
@@ -2089,19 +2089,19 @@
         <v>8145</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3917</v>
+        <v>3813</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>15938</v>
+        <v>15444</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02744078493837369</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0131969537432854</v>
+        <v>0.01284579435309317</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05369869202742306</v>
+        <v>0.0520353499428869</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -2110,19 +2110,19 @@
         <v>5725</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1983</v>
+        <v>2180</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12841</v>
+        <v>13128</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03672505867268098</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01272101715010711</v>
+        <v>0.01398331417805857</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08237908118586651</v>
+        <v>0.08422382686832625</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>13</v>
@@ -2131,19 +2131,19 @@
         <v>13869</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>7599</v>
+        <v>8149</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>23030</v>
+        <v>22698</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03063772353904556</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01678560185846665</v>
+        <v>0.01800245319492029</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05087503948478458</v>
+        <v>0.05014008839696734</v>
       </c>
     </row>
     <row r="24">
@@ -2160,19 +2160,19 @@
         <v>20418</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12624</v>
+        <v>12848</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>32172</v>
+        <v>30214</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.06879237657434648</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04253134259820718</v>
+        <v>0.04328821373220706</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1083938361004706</v>
+        <v>0.101797536842734</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -2181,19 +2181,19 @@
         <v>3956</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1023</v>
+        <v>985</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9135</v>
+        <v>8927</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02537717268806734</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.006562689638748125</v>
+        <v>0.006321879434883346</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05860561222346287</v>
+        <v>0.0572714069060286</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>24</v>
@@ -2202,19 +2202,19 @@
         <v>24374</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>15846</v>
+        <v>15530</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>36338</v>
+        <v>35504</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05384282369255167</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03500520227609346</v>
+        <v>0.03430578616965325</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0802714205824657</v>
+        <v>0.0784311210355015</v>
       </c>
     </row>
     <row r="25">
@@ -2231,19 +2231,19 @@
         <v>80745</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>66356</v>
+        <v>65936</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>97005</v>
+        <v>98041</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2720448955910987</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2235660321521371</v>
+        <v>0.2221521110979356</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3268306158265699</v>
+        <v>0.3303216454411266</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>19</v>
@@ -2252,19 +2252,19 @@
         <v>19643</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11764</v>
+        <v>12348</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>30071</v>
+        <v>28549</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1260172382346556</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07547184469585093</v>
+        <v>0.07921669155461582</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1929191909218133</v>
+        <v>0.1831521033162542</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>96</v>
@@ -2273,19 +2273,19 @@
         <v>100388</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>83937</v>
+        <v>83814</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>116901</v>
+        <v>121118</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2217618612980204</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1854207512371958</v>
+        <v>0.1851485944950114</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2582413449497995</v>
+        <v>0.2675564302817782</v>
       </c>
     </row>
     <row r="26">
@@ -2302,19 +2302,19 @@
         <v>176303</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>158758</v>
+        <v>158686</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>193393</v>
+        <v>192190</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5939996851839038</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5348878192570814</v>
+        <v>0.5346454773403022</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6515818932033745</v>
+        <v>0.6475286011076936</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>122</v>
@@ -2323,19 +2323,19 @@
         <v>123754</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>111481</v>
+        <v>112991</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>133332</v>
+        <v>133765</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7939280509746925</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7151917018834167</v>
+        <v>0.7248789872299816</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8553740548375559</v>
+        <v>0.858151480541588</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>290</v>
@@ -2344,19 +2344,19 @@
         <v>300058</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>280516</v>
+        <v>280743</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>320397</v>
+        <v>319929</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6628428417147153</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6196745612836254</v>
+        <v>0.6201757120476639</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7077741466092556</v>
+        <v>0.7067398805500851</v>
       </c>
     </row>
     <row r="27">
@@ -2448,19 +2448,19 @@
         <v>30789</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>20583</v>
+        <v>20405</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>44306</v>
+        <v>42864</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01639418017223685</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01095985033384933</v>
+        <v>0.01086494230759698</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02359133907333765</v>
+        <v>0.02282366001606341</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>10</v>
@@ -2469,19 +2469,19 @@
         <v>9600</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4714</v>
+        <v>4774</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>17182</v>
+        <v>17005</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.009476661193507402</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.004653554642291766</v>
+        <v>0.004712655716195576</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01696192628641009</v>
+        <v>0.01678687061063506</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>40</v>
@@ -2490,19 +2490,19 @@
         <v>40389</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>28643</v>
+        <v>29021</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>54743</v>
+        <v>54951</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01397039962238398</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.009907550679143845</v>
+        <v>0.0100383318772072</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01893530145860749</v>
+        <v>0.01900750416083112</v>
       </c>
     </row>
     <row r="29">
@@ -2519,19 +2519,19 @@
         <v>34819</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>23401</v>
+        <v>24228</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>47505</v>
+        <v>49171</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01853954275313495</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01245991310438107</v>
+        <v>0.01290036727510167</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02529470473608392</v>
+        <v>0.02618184635757037</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>15</v>
@@ -2540,19 +2540,19 @@
         <v>16457</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>9976</v>
+        <v>9098</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>26144</v>
+        <v>26953</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01624597841163141</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.009848018698096435</v>
+        <v>0.008981041504756173</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0258092719330555</v>
+        <v>0.02660790137122986</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>47</v>
@@ -2561,19 +2561,19 @@
         <v>51275</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>38643</v>
+        <v>37611</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>67323</v>
+        <v>68557</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0177359169650647</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01336656792761865</v>
+        <v>0.01300937262214214</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02328676806505056</v>
+        <v>0.0237135513487025</v>
       </c>
     </row>
     <row r="30">
@@ -2590,19 +2590,19 @@
         <v>50451</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>38598</v>
+        <v>37946</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>66570</v>
+        <v>66771</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02686349712447299</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02055171369698073</v>
+        <v>0.02020469852234156</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03544585363271668</v>
+        <v>0.03555303536122695</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>10</v>
@@ -2611,19 +2611,19 @@
         <v>9838</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>4863</v>
+        <v>5028</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>16709</v>
+        <v>17900</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.009711651645024858</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.004801024989722687</v>
+        <v>0.004963932505539686</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01649486100829666</v>
+        <v>0.01767059962969953</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>60</v>
@@ -2632,19 +2632,19 @@
         <v>60289</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>45964</v>
+        <v>46901</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>76695</v>
+        <v>78496</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02085378329571471</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01589880019618256</v>
+        <v>0.0162227347973763</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02652858352732694</v>
+        <v>0.02715144883221893</v>
       </c>
     </row>
     <row r="31">
@@ -2661,19 +2661,19 @@
         <v>281094</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>250865</v>
+        <v>253173</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>316225</v>
+        <v>314619</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1496717738153726</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.133576220224886</v>
+        <v>0.1348049311392551</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1683779613347133</v>
+        <v>0.1675228204377976</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>74</v>
@@ -2682,19 +2682,19 @@
         <v>78795</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>62411</v>
+        <v>62991</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>96985</v>
+        <v>96725</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07778618199218527</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06161183058927456</v>
+        <v>0.06218470436972282</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0957432953392631</v>
+        <v>0.09548616031422287</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>348</v>
@@ -2703,19 +2703,19 @@
         <v>359889</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>325370</v>
+        <v>324148</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>394358</v>
+        <v>395665</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1244842897171785</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1125443779158979</v>
+        <v>0.1121217102308888</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1364071461622761</v>
+        <v>0.1368592630835223</v>
       </c>
     </row>
     <row r="32">
@@ -2732,19 +2732,19 @@
         <v>1480915</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1444245</v>
+        <v>1442939</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1514724</v>
+        <v>1514035</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7885310061347826</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7690055577683904</v>
+        <v>0.7683103771928133</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8065329863296742</v>
+        <v>0.8061661541994256</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>859</v>
@@ -2753,19 +2753,19 @@
         <v>898281</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>877467</v>
+        <v>876096</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>918408</v>
+        <v>917729</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.886779526757651</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8662316413361115</v>
+        <v>0.8648789590584918</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9066484801876699</v>
+        <v>0.9059788082605792</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2270</v>
@@ -2774,19 +2774,19 @@
         <v>2379196</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2333359</v>
+        <v>2338660</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2418763</v>
+        <v>2419652</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8229556103996581</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8071007442950582</v>
+        <v>0.8089342876596567</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8366416007424654</v>
+        <v>0.8369490831147388</v>
       </c>
     </row>
     <row r="33">
@@ -3212,19 +3212,19 @@
         <v>5180</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2051</v>
+        <v>2042</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11239</v>
+        <v>11560</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01855265920604898</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.007346763090347874</v>
+        <v>0.007313857017561379</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04025818964680068</v>
+        <v>0.0414066502413502</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -3236,16 +3236,16 @@
         <v>936</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11779</v>
+        <v>12728</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01670504911251243</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.004172117365530415</v>
+        <v>0.004172283057791315</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05250513792835501</v>
+        <v>0.05673450706376919</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>8</v>
@@ -3254,19 +3254,19 @@
         <v>8927</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3923</v>
+        <v>3883</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>16732</v>
+        <v>17430</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01772946114384244</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.007790377759839894</v>
+        <v>0.007711240191339217</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03322999321133847</v>
+        <v>0.0346149353598208</v>
       </c>
     </row>
     <row r="7">
@@ -3283,19 +3283,19 @@
         <v>37707</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26905</v>
+        <v>26986</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>50904</v>
+        <v>52433</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1350623701465292</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09637129181436711</v>
+        <v>0.09666055790732378</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1823295029226942</v>
+        <v>0.1878081787892739</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -3304,19 +3304,19 @@
         <v>12476</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6996</v>
+        <v>6877</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20971</v>
+        <v>20312</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05560886286193109</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03118314950669843</v>
+        <v>0.03065488926378314</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09347522650374258</v>
+        <v>0.09053653135951803</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>46</v>
@@ -3325,19 +3325,19 @@
         <v>50183</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>36641</v>
+        <v>36853</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>65671</v>
+        <v>65730</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09966205843519887</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07276852857179414</v>
+        <v>0.0731896718800451</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1304206612844865</v>
+        <v>0.1305383052128311</v>
       </c>
     </row>
     <row r="8">
@@ -3354,19 +3354,19 @@
         <v>236298</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>222458</v>
+        <v>221349</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>247488</v>
+        <v>247336</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8463849706474219</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7968139211573199</v>
+        <v>0.7928404392801133</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8864657308265549</v>
+        <v>0.8859201327032511</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>191</v>
@@ -3375,19 +3375,19 @@
         <v>208125</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>197979</v>
+        <v>197983</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>214587</v>
+        <v>215028</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9276860880255565</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8824629145043681</v>
+        <v>0.8824818912692314</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9564934438159221</v>
+        <v>0.9584564861960511</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>413</v>
@@ -3396,19 +3396,19 @@
         <v>444423</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>429038</v>
+        <v>427804</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>460475</v>
+        <v>458629</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8826084804209586</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8520544797339679</v>
+        <v>0.8496038999221232</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9144867195864863</v>
+        <v>0.9108205794768424</v>
       </c>
     </row>
     <row r="9">
@@ -3500,19 +3500,19 @@
         <v>3879</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>951</v>
+        <v>977</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9793</v>
+        <v>9782</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01017489418509607</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002494210270384118</v>
+        <v>0.002561988964542425</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02569128770324041</v>
+        <v>0.02566190802488616</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4698</v>
+        <v>5890</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003793031304390639</v>
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01839438514302927</v>
+        <v>0.02306190855912323</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -3542,19 +3542,19 @@
         <v>4847</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1872</v>
+        <v>1071</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10574</v>
+        <v>10139</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007614428054190337</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002941102816447314</v>
+        <v>0.0016824342281002</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01661013794218206</v>
+        <v>0.0159275330784021</v>
       </c>
     </row>
     <row r="11">
@@ -3571,19 +3571,19 @@
         <v>4916</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1892</v>
+        <v>1880</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11182</v>
+        <v>11020</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01289584814861212</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004962635138952607</v>
+        <v>0.004932383151411201</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02933555583513095</v>
+        <v>0.02890920609407865</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -3595,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5970</v>
+        <v>6777</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.007716787943535567</v>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02337334259291808</v>
+        <v>0.02653198900115647</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>7</v>
@@ -3613,19 +3613,19 @@
         <v>6887</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2904</v>
+        <v>2931</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>13868</v>
+        <v>13772</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01081795827650093</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004561518597712917</v>
+        <v>0.00460346204692634</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02178435368002804</v>
+        <v>0.02163427525767713</v>
       </c>
     </row>
     <row r="12">
@@ -3642,19 +3642,19 @@
         <v>9085</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4219</v>
+        <v>4172</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17527</v>
+        <v>16735</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02383334331654439</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01106767559099224</v>
+        <v>0.01094422084313971</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04597943160054498</v>
+        <v>0.0439015834769958</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6519</v>
+        <v>7499</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.008298418613472833</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02552237213685626</v>
+        <v>0.02936066342782373</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -3684,19 +3684,19 @@
         <v>11204</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5944</v>
+        <v>5902</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>20124</v>
+        <v>19362</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01760057879434759</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.009336664157537157</v>
+        <v>0.009271001928295056</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03161116038374372</v>
+        <v>0.0304146930977734</v>
       </c>
     </row>
     <row r="13">
@@ -3713,19 +3713,19 @@
         <v>63169</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>49637</v>
+        <v>49721</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>78993</v>
+        <v>79826</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1657163566897807</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1302153480995532</v>
+        <v>0.1304362272277198</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2072286878279246</v>
+        <v>0.2094138713589296</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -3734,19 +3734,19 @@
         <v>21015</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12345</v>
+        <v>12725</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32713</v>
+        <v>33542</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08228114519074342</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04833478366810226</v>
+        <v>0.04982154756008533</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1280821588862145</v>
+        <v>0.131327858712765</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>79</v>
@@ -3755,19 +3755,19 @@
         <v>84184</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>67049</v>
+        <v>67706</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>103142</v>
+        <v>103439</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1322413295446304</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1053237329676616</v>
+        <v>0.1063559642203641</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.162020432925322</v>
+        <v>0.1624872786049075</v>
       </c>
     </row>
     <row r="14">
@@ -3784,19 +3784,19 @@
         <v>300140</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>283508</v>
+        <v>283780</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>315837</v>
+        <v>316488</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7873795576599667</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7437488091441131</v>
+        <v>0.7444615307353837</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8285596672795907</v>
+        <v>0.8302676969208088</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>212</v>
@@ -3805,19 +3805,19 @@
         <v>229334</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>217172</v>
+        <v>216141</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>238698</v>
+        <v>238446</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8979106169478576</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8502898743848174</v>
+        <v>0.8462540043998641</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9345714986721682</v>
+        <v>0.9335865489656251</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>499</v>
@@ -3826,19 +3826,19 @@
         <v>529474</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>508776</v>
+        <v>508887</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>548658</v>
+        <v>548596</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8317257053303307</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7992119824871494</v>
+        <v>0.7993856604157257</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8618600921005704</v>
+        <v>0.8617631391064967</v>
       </c>
     </row>
     <row r="15">
@@ -3930,19 +3930,19 @@
         <v>17290</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8363</v>
+        <v>9138</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28931</v>
+        <v>29989</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03818402031119331</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01846879152084011</v>
+        <v>0.02018041810769802</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06389171220710932</v>
+        <v>0.06622842555250337</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5257</v>
+        <v>4704</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.003379882426495868</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01900103584961274</v>
+        <v>0.01700059867058103</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -3972,19 +3972,19 @@
         <v>18225</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10059</v>
+        <v>10225</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>31194</v>
+        <v>31099</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02498340466576907</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01378900001383336</v>
+        <v>0.01401644324687338</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0427603717170335</v>
+        <v>0.04263024678404195</v>
       </c>
     </row>
     <row r="17">
@@ -4001,19 +4001,19 @@
         <v>8920</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3930</v>
+        <v>4087</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17909</v>
+        <v>17978</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01969835231809623</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.008679350920743933</v>
+        <v>0.009025198267250409</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03954961228945292</v>
+        <v>0.0397036864255843</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -4022,19 +4022,19 @@
         <v>3045</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8214</v>
+        <v>9234</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01100405211702862</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.003587431532970161</v>
+        <v>0.003603161116035552</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02968871454300295</v>
+        <v>0.0333721937835479</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -4043,19 +4043,19 @@
         <v>11964</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6325</v>
+        <v>5897</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>21981</v>
+        <v>20209</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01640075260048651</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.008670012917240795</v>
+        <v>0.008083666343919077</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03013230582050899</v>
+        <v>0.02770212587429273</v>
       </c>
     </row>
     <row r="18">
@@ -4072,19 +4072,19 @@
         <v>9190</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3973</v>
+        <v>4662</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16816</v>
+        <v>16351</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02029459037965906</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.008774342304672391</v>
+        <v>0.01029593495245809</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03713593689489648</v>
+        <v>0.03610895023779258</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7104</v>
+        <v>7034</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.007290167108918368</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02567482137626464</v>
+        <v>0.025421674338496</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>11</v>
@@ -4114,19 +4114,19 @@
         <v>11207</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>6084</v>
+        <v>6022</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>19878</v>
+        <v>19168</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01536223452426704</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.008339756405403345</v>
+        <v>0.008254432109895278</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0272488661442967</v>
+        <v>0.0262757295853272</v>
       </c>
     </row>
     <row r="19">
@@ -4143,19 +4143,19 @@
         <v>90514</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>74386</v>
+        <v>73456</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>107208</v>
+        <v>107123</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1998932706571841</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1642745961415636</v>
+        <v>0.1622213870850828</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2367612359437565</v>
+        <v>0.236572824581623</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>25</v>
@@ -4164,19 +4164,19 @@
         <v>28266</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>18645</v>
+        <v>19336</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>40305</v>
+        <v>40850</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1021603372983806</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06738665317480376</v>
+        <v>0.06988506145982465</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1456714479582401</v>
+        <v>0.1476411457262054</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>114</v>
@@ -4185,19 +4185,19 @@
         <v>118780</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>100875</v>
+        <v>97940</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>138030</v>
+        <v>140237</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1628248366266239</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.138279867727233</v>
+        <v>0.1342560244959443</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1892124110959559</v>
+        <v>0.1922382960707681</v>
       </c>
     </row>
     <row r="20">
@@ -4214,19 +4214,19 @@
         <v>326898</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>308381</v>
+        <v>307360</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>345620</v>
+        <v>346563</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7219297663338673</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6810353450286922</v>
+        <v>0.6787807924897432</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7632747160793873</v>
+        <v>0.7653574587599696</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>230</v>
@@ -4235,19 +4235,19 @@
         <v>242423</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>229440</v>
+        <v>228430</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>253184</v>
+        <v>251949</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8761655610491765</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8292427003070084</v>
+        <v>0.8255921846223827</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9150586601271381</v>
+        <v>0.9105966248951336</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>538</v>
@@ -4256,19 +4256,19 @@
         <v>569321</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>545874</v>
+        <v>544176</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>589686</v>
+        <v>591182</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7804287715828534</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.748287468499848</v>
+        <v>0.7459589620609114</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8083449920333232</v>
+        <v>0.810395527237592</v>
       </c>
     </row>
     <row r="21">
@@ -4360,19 +4360,19 @@
         <v>8803</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3770</v>
+        <v>3636</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18359</v>
+        <v>19291</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02980477538260397</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01276432466032814</v>
+        <v>0.01231264104748263</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06216353716221284</v>
+        <v>0.06531834952485685</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -4381,19 +4381,19 @@
         <v>3005</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8097</v>
+        <v>8343</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0161081693523339</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.005228420166189763</v>
+        <v>0.00525299985452524</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0434096210903003</v>
+        <v>0.04472654772185128</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>10</v>
@@ -4402,19 +4402,19 @@
         <v>11807</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5694</v>
+        <v>5763</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>22726</v>
+        <v>21801</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02450276833346562</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01181680927253892</v>
+        <v>0.0119601688266431</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04716170720189244</v>
+        <v>0.04524215811690267</v>
       </c>
     </row>
     <row r="23">
@@ -4431,19 +4431,19 @@
         <v>10269</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4893</v>
+        <v>4674</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>20660</v>
+        <v>18783</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03476986971427211</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01656684423819754</v>
+        <v>0.0158267300609147</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06995400145695449</v>
+        <v>0.06359884855055228</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -4452,19 +4452,19 @@
         <v>5098</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1132</v>
+        <v>1113</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12582</v>
+        <v>12966</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02732943187274174</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.006069393794810437</v>
+        <v>0.005964520161724062</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06744974051029513</v>
+        <v>0.06950743893609333</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>13</v>
@@ -4473,19 +4473,19 @@
         <v>15367</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>7925</v>
+        <v>8252</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>25860</v>
+        <v>25686</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03188964859983798</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01644572291837646</v>
+        <v>0.01712409826907582</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0536656306498046</v>
+        <v>0.05330326244929409</v>
       </c>
     </row>
     <row r="24">
@@ -4502,19 +4502,19 @@
         <v>15502</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9202</v>
+        <v>8775</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>24757</v>
+        <v>24917</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05248775078729587</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03115670559078876</v>
+        <v>0.02971136553554943</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08382641058708346</v>
+        <v>0.08436645025530493</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -4523,19 +4523,19 @@
         <v>2937</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8114</v>
+        <v>8054</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01574706175180071</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.004828677505885995</v>
+        <v>0.004811295093284622</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04349847496535791</v>
+        <v>0.04317492960889614</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>17</v>
@@ -4544,19 +4544,19 @@
         <v>18439</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10538</v>
+        <v>10828</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>30094</v>
+        <v>29454</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03826529364529437</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02186847229279506</v>
+        <v>0.02247062779462726</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06245138621545455</v>
+        <v>0.06112302763976045</v>
       </c>
     </row>
     <row r="25">
@@ -4573,19 +4573,19 @@
         <v>67906</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>52033</v>
+        <v>53511</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>83248</v>
+        <v>84403</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2299250783493305</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1761822823800277</v>
+        <v>0.1811866733503817</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2818729220368073</v>
+        <v>0.2857822419473386</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>22</v>
@@ -4594,19 +4594,19 @@
         <v>26165</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>16882</v>
+        <v>17184</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>39998</v>
+        <v>39694</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1402700624751189</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09050107117050309</v>
+        <v>0.09211941640011229</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2144247131146614</v>
+        <v>0.2127968067594124</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>85</v>
@@ -4615,19 +4615,19 @@
         <v>94071</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>78511</v>
+        <v>76333</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>113764</v>
+        <v>113576</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1952192888197833</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1629287175531643</v>
+        <v>0.1584080751821694</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2360868673392107</v>
+        <v>0.2356969996148975</v>
       </c>
     </row>
     <row r="26">
@@ -4644,19 +4644,19 @@
         <v>192860</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>175213</v>
+        <v>174962</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>211474</v>
+        <v>210369</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6530125257664975</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.593259346437886</v>
+        <v>0.5924096636739513</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7160395331558161</v>
+        <v>0.7122955836506958</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>137</v>
@@ -4665,19 +4665,19 @@
         <v>149331</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>136441</v>
+        <v>135462</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>160169</v>
+        <v>160800</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8005452745480047</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7314441799296115</v>
+        <v>0.726196619977703</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8586483973519423</v>
+        <v>0.8620342833594333</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>312</v>
@@ -4686,19 +4686,19 @@
         <v>342191</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>321340</v>
+        <v>319681</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>361885</v>
+        <v>362350</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7101230006016187</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.666854291800262</v>
+        <v>0.6634096582289344</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7509941608545837</v>
+        <v>0.7519584982365684</v>
       </c>
     </row>
     <row r="27">
@@ -4790,19 +4790,19 @@
         <v>29971</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>19926</v>
+        <v>19135</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>46269</v>
+        <v>44639</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02127846815260394</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01414699574894095</v>
+        <v>0.01358542938758476</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03284913236984568</v>
+        <v>0.03169186144271647</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>5</v>
@@ -4811,19 +4811,19 @@
         <v>4909</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1911</v>
+        <v>1880</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>10969</v>
+        <v>10935</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.005205512603294457</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.002026206995199333</v>
+        <v>0.001993208395017969</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0116325341394167</v>
+        <v>0.01159670864268582</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>29</v>
@@ -4832,19 +4832,19 @@
         <v>34880</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>23608</v>
+        <v>23036</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>50861</v>
+        <v>51069</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01483303584633</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0100397203817062</v>
+        <v>0.009796394756417873</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02162915081436718</v>
+        <v>0.0217175318856359</v>
       </c>
     </row>
     <row r="29">
@@ -4861,19 +4861,19 @@
         <v>24104</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>16083</v>
+        <v>14778</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>37497</v>
+        <v>35376</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01711315593934698</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0114180912034505</v>
+        <v>0.01049196978167007</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02662117530593928</v>
+        <v>0.02511581168591394</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>9</v>
@@ -4882,19 +4882,19 @@
         <v>10114</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>4908</v>
+        <v>4973</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>18530</v>
+        <v>19944</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01072507416483237</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.005204485398909625</v>
+        <v>0.005273877293238016</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01965032569547247</v>
+        <v>0.02114999842358481</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>31</v>
@@ -4903,19 +4903,19 @@
         <v>34218</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>22786</v>
+        <v>23836</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>47015</v>
+        <v>49935</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01455146474831117</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.009689887588272132</v>
+        <v>0.01013662114059146</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01999351296949776</v>
+        <v>0.02123549593999945</v>
       </c>
     </row>
     <row r="30">
@@ -4932,19 +4932,19 @@
         <v>38956</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>27371</v>
+        <v>27468</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>54257</v>
+        <v>52548</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02765727148700303</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01943259280872791</v>
+        <v>0.0195013246082098</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03852049339984808</v>
+        <v>0.03730707533897683</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>10</v>
@@ -4953,19 +4953,19 @@
         <v>10822</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>5125</v>
+        <v>5693</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>20489</v>
+        <v>19322</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01147609316424517</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.005435311439081195</v>
+        <v>0.00603756222094308</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02172835060598537</v>
+        <v>0.02049050807772584</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>47</v>
@@ -4974,19 +4974,19 @@
         <v>49778</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>36684</v>
+        <v>36175</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>68209</v>
+        <v>64759</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02116844065591399</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01560028871161254</v>
+        <v>0.01538374062895917</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02900659768037009</v>
+        <v>0.02753921341658103</v>
       </c>
     </row>
     <row r="31">
@@ -5003,19 +5003,19 @@
         <v>259297</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>229696</v>
+        <v>231761</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>287397</v>
+        <v>292743</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1840908518739443</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1630753676351724</v>
+        <v>0.1645418509601194</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2040410086596831</v>
+        <v>0.2078368089723958</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>76</v>
@@ -5024,19 +5024,19 @@
         <v>87923</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>70781</v>
+        <v>70920</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>110094</v>
+        <v>109569</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0932394173787508</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.07506096984416277</v>
+        <v>0.07520827502495125</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1167511977667667</v>
+        <v>0.1161944072171338</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>324</v>
@@ -5045,19 +5045,19 @@
         <v>347219</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>310835</v>
+        <v>310844</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>385023</v>
+        <v>383311</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1476584254188231</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1321855998497337</v>
+        <v>0.1321895289400223</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1637346021823244</v>
+        <v>0.1630066237974225</v>
       </c>
     </row>
     <row r="32">
@@ -5074,19 +5074,19 @@
         <v>1056197</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1022740</v>
+        <v>1022096</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1089923</v>
+        <v>1090640</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7498602525471018</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7261073141398551</v>
+        <v>0.7256502166267996</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7738043594944088</v>
+        <v>0.7743132352815747</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>770</v>
@@ -5095,19 +5095,19 @@
         <v>829212</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>806275</v>
+        <v>805234</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>849598</v>
+        <v>848755</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8793539026888773</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8550295472850519</v>
+        <v>0.853925614295366</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9009721974410394</v>
+        <v>0.9000785014373874</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1762</v>
@@ -5116,19 +5116,19 @@
         <v>1885409</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1845247</v>
+        <v>1842438</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1927741</v>
+        <v>1923851</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8017886333306218</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7847091122214176</v>
+        <v>0.7835146695957661</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8197906006230752</v>
+        <v>0.8181365007478419</v>
       </c>
     </row>
     <row r="33">
@@ -5463,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8282</v>
+        <v>8977</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005684820040128817</v>
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02851471897957639</v>
+        <v>0.03090550907871483</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -5484,7 +5484,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4593</v>
+        <v>4967</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003281262957875993</v>
@@ -5493,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0166937883240998</v>
+        <v>0.01805589744455208</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -5505,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8417</v>
+        <v>9435</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004515626098146012</v>
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01488219065049338</v>
+        <v>0.01668198032203296</v>
       </c>
     </row>
     <row r="5">
@@ -5578,19 +5578,19 @@
         <v>7377</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2943</v>
+        <v>3105</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13724</v>
+        <v>13854</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0253983807496936</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01013346023786928</v>
+        <v>0.01069108279175227</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04725063033709746</v>
+        <v>0.04769706149826432</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -5602,7 +5602,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9679</v>
+        <v>8896</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.006522219888021256</v>
@@ -5611,7 +5611,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03518135869140529</v>
+        <v>0.03233662818467773</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>8</v>
@@ -5620,19 +5620,19 @@
         <v>9171</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4766</v>
+        <v>4175</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>18155</v>
+        <v>18207</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0162162011000743</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.008427283124938571</v>
+        <v>0.007382720404283518</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03210028617779926</v>
+        <v>0.03219174379126642</v>
       </c>
     </row>
     <row r="7">
@@ -5649,19 +5649,19 @@
         <v>17627</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10675</v>
+        <v>10500</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28378</v>
+        <v>27878</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06068690172247248</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03675320629489098</v>
+        <v>0.03615108741627866</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09770255521592186</v>
+        <v>0.09598265428140583</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -5670,19 +5670,19 @@
         <v>12061</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6116</v>
+        <v>5904</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21720</v>
+        <v>21584</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04384008522266748</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02223047141500589</v>
+        <v>0.02146029207843948</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07894735744644515</v>
+        <v>0.07845415982725783</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -5691,19 +5691,19 @@
         <v>29688</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19681</v>
+        <v>20089</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>42982</v>
+        <v>42789</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0524918827904461</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03479840012967457</v>
+        <v>0.03551939963381951</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07599737368272783</v>
+        <v>0.07565675426751592</v>
       </c>
     </row>
     <row r="8">
@@ -5720,19 +5720,19 @@
         <v>263796</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>251689</v>
+        <v>251709</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>272881</v>
+        <v>272506</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9082298974877051</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8665465245233188</v>
+        <v>0.8666132967934964</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9395073631483776</v>
+        <v>0.9382160524396799</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>256</v>
@@ -5741,19 +5741,19 @@
         <v>260359</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>250603</v>
+        <v>249066</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>266967</v>
+        <v>266728</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9463564319314353</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9108968612589743</v>
+        <v>0.9053075999644707</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9703752401591488</v>
+        <v>0.9695066558421412</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>498</v>
@@ -5762,19 +5762,19 @@
         <v>524155</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>509222</v>
+        <v>508071</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>535564</v>
+        <v>537250</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9267762900113335</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9003726827347646</v>
+        <v>0.8983378309949471</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9469481580076825</v>
+        <v>0.94992999049413</v>
       </c>
     </row>
     <row r="9">
@@ -5869,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6627</v>
+        <v>5770</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004900843345677647</v>
@@ -5878,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01714727054145357</v>
+        <v>0.0149299388826129</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -5890,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6418</v>
+        <v>6411</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006809745003639033</v>
@@ -5899,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02394704966966129</v>
+        <v>0.02392052996722216</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -5908,19 +5908,19 @@
         <v>3719</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>943</v>
+        <v>962</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9251</v>
+        <v>9145</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005682539528586854</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001441469757790827</v>
+        <v>0.001469214240128692</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01413513478986073</v>
+        <v>0.01397390951614052</v>
       </c>
     </row>
     <row r="11">
@@ -5937,19 +5937,19 @@
         <v>2810</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>887</v>
+        <v>896</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7684</v>
+        <v>7763</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.007271746773832113</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002295510212397162</v>
+        <v>0.002319489147400764</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01988377513022822</v>
+        <v>0.02008771216050836</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -5961,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6138</v>
+        <v>4694</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.003506961918272283</v>
@@ -5970,7 +5970,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02290175687061953</v>
+        <v>0.0175168165783594</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -5979,19 +5979,19 @@
         <v>3750</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>9264</v>
+        <v>9333</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.00573006549402831</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.001419680685190059</v>
+        <v>0.001429384494128389</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01415507682437476</v>
+        <v>0.01426132451724071</v>
       </c>
     </row>
     <row r="12">
@@ -6008,19 +6008,19 @@
         <v>7068</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3064</v>
+        <v>3070</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14094</v>
+        <v>14553</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01828815989525185</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.007927387527276316</v>
+        <v>0.007944053512542024</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03646991029627328</v>
+        <v>0.03765810095437222</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -6029,19 +6029,19 @@
         <v>3168</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8435</v>
+        <v>9021</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01181996106459212</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.003500687848004024</v>
+        <v>0.003502168941283923</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03147305618355212</v>
+        <v>0.03366121792445712</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>10</v>
@@ -6050,19 +6050,19 @@
         <v>10235</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5002</v>
+        <v>5195</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>18650</v>
+        <v>18266</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01563942924161292</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.007642474123475533</v>
+        <v>0.007937880575474936</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02849743842960505</v>
+        <v>0.02791070663828507</v>
       </c>
     </row>
     <row r="13">
@@ -6079,19 +6079,19 @@
         <v>47472</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35007</v>
+        <v>34528</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>62873</v>
+        <v>61878</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1228405199322795</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09058579616611002</v>
+        <v>0.08934674323090946</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1626934689697422</v>
+        <v>0.1601173561449172</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -6100,19 +6100,19 @@
         <v>20508</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12531</v>
+        <v>12640</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30810</v>
+        <v>30844</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07652471931122319</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04675920377698106</v>
+        <v>0.04716468728354193</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1149648219826476</v>
+        <v>0.1150895861223604</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>62</v>
@@ -6121,19 +6121,19 @@
         <v>67981</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>53089</v>
+        <v>52920</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>84905</v>
+        <v>86641</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1038741764316255</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08111958865673614</v>
+        <v>0.08086172030210755</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1297344496713764</v>
+        <v>0.1323880605784816</v>
       </c>
     </row>
     <row r="14">
@@ -6150,19 +6150,19 @@
         <v>327209</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>313402</v>
+        <v>310162</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>342566</v>
+        <v>340696</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8466987300529589</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8109700565693599</v>
+        <v>0.8025874862772203</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8864365557847163</v>
+        <v>0.8815975143536576</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>236</v>
@@ -6171,19 +6171,19 @@
         <v>241557</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>230215</v>
+        <v>230574</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>250383</v>
+        <v>250705</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9013386127022733</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8590162980939338</v>
+        <v>0.8603566819014092</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9342721395029148</v>
+        <v>0.9354740468727978</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>549</v>
@@ -6192,19 +6192,19 @@
         <v>568766</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>550588</v>
+        <v>550757</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>586457</v>
+        <v>584494</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8690737893041465</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8412978011370055</v>
+        <v>0.8415551621853886</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8961058075894733</v>
+        <v>0.8931056646702651</v>
       </c>
     </row>
     <row r="15">
@@ -6296,19 +6296,19 @@
         <v>4005</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1027</v>
+        <v>1015</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10149</v>
+        <v>10132</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008833078429021139</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002264163805308691</v>
+        <v>0.002239429393680719</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02238295325600831</v>
+        <v>0.02234458884095287</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -6320,7 +6320,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6688</v>
+        <v>4905</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.003359979072539848</v>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0230102619620622</v>
+        <v>0.01687560109260504</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -6338,19 +6338,19 @@
         <v>4982</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1948</v>
+        <v>1926</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11106</v>
+        <v>11274</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006695281721940458</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002617748989784839</v>
+        <v>0.0025890783195434</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01492630089491247</v>
+        <v>0.01515123088655652</v>
       </c>
     </row>
     <row r="17">
@@ -6367,19 +6367,19 @@
         <v>8669</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3736</v>
+        <v>3769</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17771</v>
+        <v>18787</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01911887045364488</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.008240388566201828</v>
+        <v>0.008312406232361541</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03919255446168148</v>
+        <v>0.04143179726134139</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -6391,7 +6391,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4439</v>
+        <v>5291</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.003045531906726525</v>
@@ -6400,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01527454124614818</v>
+        <v>0.01820625762281193</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -6409,19 +6409,19 @@
         <v>9554</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4775</v>
+        <v>4627</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>19738</v>
+        <v>18999</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01284061238096732</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.006417711213456722</v>
+        <v>0.006217846236541377</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02652764272063468</v>
+        <v>0.02553434649868223</v>
       </c>
     </row>
     <row r="18">
@@ -6438,19 +6438,19 @@
         <v>16047</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9270</v>
+        <v>8458</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>26974</v>
+        <v>27319</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03538954100796404</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02044444848066512</v>
+        <v>0.01865365718076787</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05948822220155711</v>
+        <v>0.06024779062058516</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -6459,19 +6459,19 @@
         <v>5934</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2651</v>
+        <v>2172</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>12140</v>
+        <v>11652</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02041734463748008</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.009121821590676942</v>
+        <v>0.007473275447473132</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04177030739532991</v>
+        <v>0.04009092986745025</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>19</v>
@@ -6480,19 +6480,19 @@
         <v>21981</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>13514</v>
+        <v>13542</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>33310</v>
+        <v>33542</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02954138989397369</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01816254821915382</v>
+        <v>0.01819963687080663</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04476745990837779</v>
+        <v>0.04507841503602552</v>
       </c>
     </row>
     <row r="19">
@@ -6509,19 +6509,19 @@
         <v>61991</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>48057</v>
+        <v>47775</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>78693</v>
+        <v>77675</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1367135110391488</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1059835158785139</v>
+        <v>0.1053609002704497</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1735472573811392</v>
+        <v>0.1713022815687134</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -6530,19 +6530,19 @@
         <v>28602</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19424</v>
+        <v>19122</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>40364</v>
+        <v>40455</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09841097265061374</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06683164615393569</v>
+        <v>0.06579232556965008</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1388819009545463</v>
+        <v>0.1391969284367664</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>85</v>
@@ -6551,19 +6551,19 @@
         <v>90593</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>72770</v>
+        <v>73592</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>111808</v>
+        <v>111047</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1217525108623705</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09779972200392073</v>
+        <v>0.09890388753841953</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.150264839414213</v>
+        <v>0.1492420815456417</v>
       </c>
     </row>
     <row r="20">
@@ -6580,19 +6580,19 @@
         <v>362725</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>344183</v>
+        <v>343334</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>379571</v>
+        <v>380757</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7999449990702211</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7590537606865635</v>
+        <v>0.7571811173031056</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8370972948969685</v>
+        <v>0.8397139497956311</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>256</v>
@@ -6601,19 +6601,19 @@
         <v>254238</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>240703</v>
+        <v>241059</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>264420</v>
+        <v>264195</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8747661717326398</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8281973839202192</v>
+        <v>0.8294231931499735</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9098026337060486</v>
+        <v>0.9090268592474771</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>599</v>
@@ -6622,19 +6622,19 @@
         <v>616962</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>594054</v>
+        <v>592972</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>637537</v>
+        <v>636787</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.829170205140748</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7983821620033991</v>
+        <v>0.7969282305692947</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8568215638437118</v>
+        <v>0.8558136833348394</v>
       </c>
     </row>
     <row r="21">
@@ -6726,19 +6726,19 @@
         <v>10544</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4893</v>
+        <v>5286</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19288</v>
+        <v>19455</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0387282111816093</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01797409438406559</v>
+        <v>0.01941576684457027</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07084735329118819</v>
+        <v>0.07146061337501834</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -6747,19 +6747,19 @@
         <v>3535</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>925</v>
+        <v>937</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10610</v>
+        <v>10351</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01848884627764923</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004837985972568451</v>
+        <v>0.004902394036003117</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05548700191905849</v>
+        <v>0.05412976620675843</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -6768,19 +6768,19 @@
         <v>14079</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7880</v>
+        <v>7724</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>24832</v>
+        <v>24318</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03037777089769966</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01700264496544551</v>
+        <v>0.01666563935049085</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05357936945991874</v>
+        <v>0.052470792069301</v>
       </c>
     </row>
     <row r="23">
@@ -6797,19 +6797,19 @@
         <v>7415</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3150</v>
+        <v>2894</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>15804</v>
+        <v>15519</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02723633317058169</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01157071428111854</v>
+        <v>0.01063061947970727</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05804947579800787</v>
+        <v>0.05700303478939538</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -6818,19 +6818,19 @@
         <v>3791</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>9620</v>
+        <v>8612</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01982747565217612</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.004932091267196161</v>
+        <v>0.0049287268194845</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05030953665951967</v>
+        <v>0.04503806214977599</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>10</v>
@@ -6839,19 +6839,19 @@
         <v>11206</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5565</v>
+        <v>6011</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>20638</v>
+        <v>21077</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02417955631157384</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01200819936449705</v>
+        <v>0.01296913157143561</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04453065364546353</v>
+        <v>0.04547605528878414</v>
       </c>
     </row>
     <row r="24">
@@ -6868,19 +6868,19 @@
         <v>13167</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7325</v>
+        <v>7106</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>22322</v>
+        <v>22830</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04836577642031738</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02690506489109106</v>
+        <v>0.02610252940917793</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08199145546217385</v>
+        <v>0.08385800243167295</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>6</v>
@@ -6889,19 +6889,19 @@
         <v>6167</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1934</v>
+        <v>1928</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12930</v>
+        <v>11995</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03225353098806892</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01011607604348984</v>
+        <v>0.01008409822337129</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06761996827074393</v>
+        <v>0.0627296529964224</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>18</v>
@@ -6910,19 +6910,19 @@
         <v>19335</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>12155</v>
+        <v>12337</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>29523</v>
+        <v>29761</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04171812003583462</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02622591622236391</v>
+        <v>0.02662012302173168</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06369990482369577</v>
+        <v>0.06421438218198412</v>
       </c>
     </row>
     <row r="25">
@@ -6939,19 +6939,19 @@
         <v>45529</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>33582</v>
+        <v>33315</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>60442</v>
+        <v>59275</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1672364279181638</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1233522360146435</v>
+        <v>0.1223713435529829</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2220109473297592</v>
+        <v>0.2177250640955654</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -6960,19 +6960,19 @@
         <v>11695</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6617</v>
+        <v>6374</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>19815</v>
+        <v>19358</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06116171726741942</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03460574861555128</v>
+        <v>0.03333320168161027</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1036261086222733</v>
+        <v>0.1012334222832759</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>54</v>
@@ -6981,19 +6981,19 @@
         <v>57225</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>43404</v>
+        <v>44026</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>71649</v>
+        <v>72779</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1234716882079409</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09365195048840397</v>
+        <v>0.09499251027186696</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1545948273510674</v>
+        <v>0.1570321206274922</v>
       </c>
     </row>
     <row r="26">
@@ -7010,19 +7010,19 @@
         <v>195591</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>178863</v>
+        <v>180054</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>210249</v>
+        <v>212051</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7184332513093278</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6569911205848109</v>
+        <v>0.6613664886257504</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7722774158632245</v>
+        <v>0.7788939536716718</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>157</v>
@@ -7031,19 +7031,19 @@
         <v>166029</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>155190</v>
+        <v>155514</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>173735</v>
+        <v>174096</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8682684298146863</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8115876541922094</v>
+        <v>0.8132835270878238</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9085698328616968</v>
+        <v>0.9104581568480317</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>334</v>
@@ -7052,19 +7052,19 @@
         <v>361619</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>342279</v>
+        <v>342429</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>379813</v>
+        <v>379065</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.780252864546951</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7385227625502101</v>
+        <v>0.738847166290107</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8195084693233258</v>
+        <v>0.8178954349614416</v>
       </c>
     </row>
     <row r="27">
@@ -7156,19 +7156,19 @@
         <v>18094</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>10474</v>
+        <v>10403</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>29022</v>
+        <v>28320</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01290041804975623</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.00746765420411575</v>
+        <v>0.007416896675164892</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02069189617624754</v>
+        <v>0.02019111112928965</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>7</v>
@@ -7177,19 +7177,19 @@
         <v>7240</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2794</v>
+        <v>2819</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>14490</v>
+        <v>14555</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.007063300516272937</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.002726290146518547</v>
+        <v>0.002750547161555125</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01413725933887033</v>
+        <v>0.01420026146127227</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>23</v>
@@ -7198,19 +7198,19 @@
         <v>25334</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>16977</v>
+        <v>16158</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>39271</v>
+        <v>37584</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01043585727472038</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.006993345504455638</v>
+        <v>0.006656264715094416</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01617709237905869</v>
+        <v>0.01548206075024084</v>
       </c>
     </row>
     <row r="29">
@@ -7227,19 +7227,19 @@
         <v>18894</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>11063</v>
+        <v>11162</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>31241</v>
+        <v>30437</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01347108891315373</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.007887554924329134</v>
+        <v>0.007957883343895421</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02227375141279969</v>
+        <v>0.0217007852958342</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>6</v>
@@ -7248,19 +7248,19 @@
         <v>5616</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1958</v>
+        <v>1887</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>12191</v>
+        <v>11934</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.005479554465579228</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.001910635340358572</v>
+        <v>0.001841201917866341</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01189355594620111</v>
+        <v>0.01164304426804628</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>22</v>
@@ -7269,19 +7269,19 @@
         <v>24511</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>15831</v>
+        <v>15395</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>37768</v>
+        <v>36759</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01009688542678216</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.006521511957499378</v>
+        <v>0.006341717064865873</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01555819765550671</v>
+        <v>0.01514242977870539</v>
       </c>
     </row>
     <row r="30">
@@ -7298,19 +7298,19 @@
         <v>43659</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>31282</v>
+        <v>31011</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>59635</v>
+        <v>58167</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03112735398969414</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02230330605047352</v>
+        <v>0.02211008805462229</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04251787531505426</v>
+        <v>0.04147103055697585</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>16</v>
@@ -7319,19 +7319,19 @@
         <v>17064</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>10032</v>
+        <v>10138</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>27889</v>
+        <v>26635</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01664788871277419</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.009787220465817967</v>
+        <v>0.009891424233656593</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02720989019429163</v>
+        <v>0.02598572057594691</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>55</v>
@@ -7340,19 +7340,19 @@
         <v>60722</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>46357</v>
+        <v>46050</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>79611</v>
+        <v>78988</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02501380188794379</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01909612728410841</v>
+        <v>0.01896963811920886</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03279491863952157</v>
+        <v>0.03253821346689924</v>
       </c>
     </row>
     <row r="31">
@@ -7369,19 +7369,19 @@
         <v>172619</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>148468</v>
+        <v>149803</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>199135</v>
+        <v>199036</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1230719065737679</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1058526329614305</v>
+        <v>0.1068047942745943</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1419769861718093</v>
+        <v>0.1419061139476747</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>68</v>
@@ -7390,19 +7390,19 @@
         <v>72867</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>57825</v>
+        <v>56296</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>91179</v>
+        <v>89946</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07109151362109073</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05641678019122085</v>
+        <v>0.0549248018502794</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.08895782374169704</v>
+        <v>0.08775541731898787</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>227</v>
@@ -7411,19 +7411,19 @@
         <v>245486</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>215027</v>
+        <v>216121</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>279516</v>
+        <v>277134</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1011246292048865</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.08857765084137438</v>
+        <v>0.08902821475264346</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1151429819641841</v>
+        <v>0.1141617830206318</v>
       </c>
     </row>
     <row r="32">
@@ -7440,19 +7440,19 @@
         <v>1149322</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1117748</v>
+        <v>1120074</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1179604</v>
+        <v>1177305</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8194292324736281</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7969181054789365</v>
+        <v>0.798576693963861</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8410198202076937</v>
+        <v>0.8393807882883586</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>905</v>
@@ -7461,19 +7461,19 @@
         <v>922182</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>901319</v>
+        <v>902076</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>939119</v>
+        <v>940971</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.899717742684283</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8793628975321526</v>
+        <v>0.8801017416402245</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9162419910120327</v>
+        <v>0.9180487736201578</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1980</v>
@@ -7482,19 +7482,19 @@
         <v>2071503</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2034286</v>
+        <v>2034782</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2107976</v>
+        <v>2105820</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8533288262056671</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8379979159129018</v>
+        <v>0.8382020729176578</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8683536060709056</v>
+        <v>0.8674654521114294</v>
       </c>
     </row>
     <row r="33">
@@ -7829,7 +7829,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7762</v>
+        <v>7227</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01233209068128358</v>
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04398969851019637</v>
+        <v>0.04095805200159585</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -7863,7 +7863,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8978</v>
+        <v>6782</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006268306116098079</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02586037517376248</v>
+        <v>0.01953530076143049</v>
       </c>
     </row>
     <row r="5">
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6632</v>
+        <v>7064</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.007258689630166922</v>
@@ -7901,7 +7901,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0375863534336262</v>
+        <v>0.04003242668628551</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -7913,7 +7913,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3536</v>
+        <v>3969</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.003772549417517285</v>
@@ -7922,7 +7922,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02071163197282741</v>
+        <v>0.02325285740415182</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -7934,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7083</v>
+        <v>6889</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.005544527469032286</v>
@@ -7943,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02040376802079558</v>
+        <v>0.01984329229862282</v>
       </c>
     </row>
     <row r="6">
@@ -7963,7 +7963,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5068</v>
+        <v>4306</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.005094038146477951</v>
@@ -7972,7 +7972,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02872162667153135</v>
+        <v>0.02440492636162414</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -7997,7 +7997,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>4654</v>
+        <v>4687</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.00258926010961518</v>
@@ -8006,7 +8006,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01340530141365636</v>
+        <v>0.01349960304843227</v>
       </c>
     </row>
     <row r="7">
@@ -8023,19 +8023,19 @@
         <v>7091</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2498</v>
+        <v>2983</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14622</v>
+        <v>14593</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04018715811418874</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01415478444642461</v>
+        <v>0.01690416382041259</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08286276061667769</v>
+        <v>0.08270021385584561</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -8044,19 +8044,19 @@
         <v>7269</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3499</v>
+        <v>3533</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14426</v>
+        <v>14822</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04258337858452853</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02049921572642019</v>
+        <v>0.02069636790025127</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08450730680128948</v>
+        <v>0.08682782388173896</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -8065,19 +8065,19 @@
         <v>14360</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7649</v>
+        <v>8741</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24738</v>
+        <v>23645</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04136539829084268</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02203386378905406</v>
+        <v>0.02517855819368668</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0712592776886164</v>
+        <v>0.06811098243545519</v>
       </c>
     </row>
     <row r="8">
@@ -8094,19 +8094,19 @@
         <v>165012</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>155042</v>
+        <v>157000</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>170735</v>
+        <v>171008</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9351280234278828</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8786282445951755</v>
+        <v>0.8897239740562605</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9675591544171949</v>
+        <v>0.9691062044625522</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>199</v>
@@ -8115,19 +8115,19 @@
         <v>162789</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>155620</v>
+        <v>154916</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>166779</v>
+        <v>166639</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9536440719979542</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9116474601664319</v>
+        <v>0.9075249049665163</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9770186786975564</v>
+        <v>0.97619932982403</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>332</v>
@@ -8136,19 +8136,19 @@
         <v>327801</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>316889</v>
+        <v>317677</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>335391</v>
+        <v>335095</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9442325080144116</v>
+        <v>0.9442325080144119</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9128019116116104</v>
+        <v>0.9150716357976929</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9660957588190594</v>
+        <v>0.9652435840030088</v>
       </c>
     </row>
     <row r="9">
@@ -8240,19 +8240,19 @@
         <v>6070</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15995</v>
+        <v>15839</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01194587798251296</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002469483373828492</v>
+        <v>0.002454878365179073</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03147875601571478</v>
+        <v>0.031171947922082</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -8264,7 +8264,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4944</v>
+        <v>4571</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003570003229070448</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01370236137221463</v>
+        <v>0.01266714136826528</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -8282,19 +8282,19 @@
         <v>7358</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3217</v>
+        <v>2633</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18180</v>
+        <v>17550</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.008467740140355486</v>
+        <v>0.008467740140355484</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00370166149945269</v>
+        <v>0.00303014883756691</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02092127721325073</v>
+        <v>0.02019637479480521</v>
       </c>
     </row>
     <row r="11">
@@ -8311,19 +8311,19 @@
         <v>5534</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2000</v>
+        <v>1967</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12629</v>
+        <v>12150</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01089056689452447</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003935605700692766</v>
+        <v>0.003870796374693715</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02485340277531192</v>
+        <v>0.02391152923863512</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -8335,7 +8335,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>3448</v>
+        <v>3941</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.001918824878638131</v>
@@ -8344,7 +8344,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.009554361366492207</v>
+        <v>0.0109224955122769</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -8353,19 +8353,19 @@
         <v>6226</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2132</v>
+        <v>2592</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>13477</v>
+        <v>13623</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.007164991198361736</v>
+        <v>0.007164991198361735</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002453325049911358</v>
+        <v>0.002982950601533201</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01550978604888239</v>
+        <v>0.01567711821588276</v>
       </c>
     </row>
     <row r="12">
@@ -8382,19 +8382,19 @@
         <v>8001</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3359</v>
+        <v>3477</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15710</v>
+        <v>16784</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.015746551685337</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.006610337799469034</v>
+        <v>0.006842437616351825</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03091791370271821</v>
+        <v>0.03303078631881436</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -8403,19 +8403,19 @@
         <v>3125</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>834</v>
+        <v>873</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7448</v>
+        <v>7841</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.008660684751133208</v>
+        <v>0.008660684751133206</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.002310960238114698</v>
+        <v>0.002419604506706273</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02063991358133282</v>
+        <v>0.02172843310754232</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -8424,19 +8424,19 @@
         <v>11126</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5336</v>
+        <v>6219</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>18725</v>
+        <v>20499</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01280409819196102</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.006140300540676179</v>
+        <v>0.007157039094421165</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02154824529542294</v>
+        <v>0.02358965796977835</v>
       </c>
     </row>
     <row r="13">
@@ -8453,19 +8453,19 @@
         <v>34210</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22805</v>
+        <v>22940</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>48757</v>
+        <v>48848</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.06732710548840289</v>
+        <v>0.06732710548840291</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04488080536918851</v>
+        <v>0.04514636089808675</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09595517533820157</v>
+        <v>0.09613540837996436</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -8474,19 +8474,19 @@
         <v>19510</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13049</v>
+        <v>12902</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27604</v>
+        <v>28639</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0540680824194559</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03616305343384812</v>
+        <v>0.03575495540766929</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07649842539554995</v>
+        <v>0.07936796757262538</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>53</v>
@@ -8495,19 +8495,19 @@
         <v>53720</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>40960</v>
+        <v>39559</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>71138</v>
+        <v>73101</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.06182120774713244</v>
+        <v>0.06182120774713243</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04713677527429781</v>
+        <v>0.04552423421360589</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08186506467475985</v>
+        <v>0.08412388094501548</v>
       </c>
     </row>
     <row r="14">
@@ -8524,19 +8524,19 @@
         <v>454305</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>436707</v>
+        <v>436016</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>468475</v>
+        <v>468549</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8940898979492227</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8594562391778066</v>
+        <v>0.858096933422172</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9219775800493263</v>
+        <v>0.9221229369775805</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>431</v>
@@ -8545,19 +8545,19 @@
         <v>336227</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>327699</v>
+        <v>326211</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>343724</v>
+        <v>343818</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9317824047217023</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9081476282540867</v>
+        <v>0.9040244361482959</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9525589574837713</v>
+        <v>0.9528196775916618</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>803</v>
@@ -8566,19 +8566,19 @@
         <v>790532</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>770261</v>
+        <v>768236</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>806948</v>
+        <v>806208</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9097419627221894</v>
+        <v>0.9097419627221893</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8864145962228371</v>
+        <v>0.884084062900363</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9286331650286255</v>
+        <v>0.9277821425903563</v>
       </c>
     </row>
     <row r="15">
@@ -8670,19 +8670,19 @@
         <v>10527</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5076</v>
+        <v>5306</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17492</v>
+        <v>19357</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01687230686360294</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008135019625980755</v>
+        <v>0.008504678344375693</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02803495826218964</v>
+        <v>0.03102524044327513</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -8694,7 +8694,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5019</v>
+        <v>5035</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002921140551984609</v>
@@ -8703,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01028149925297395</v>
+        <v>0.01031437321848251</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -8712,19 +8712,19 @@
         <v>11953</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6058</v>
+        <v>6432</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20217</v>
+        <v>20428</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01074820188011714</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005447337986148024</v>
+        <v>0.005783868573824374</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01817885072470858</v>
+        <v>0.01836886751036837</v>
       </c>
     </row>
     <row r="17">
@@ -8741,19 +8741,19 @@
         <v>10589</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4595</v>
+        <v>4975</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>19847</v>
+        <v>20969</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01697135430418057</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.007365500930942015</v>
+        <v>0.00797330254881346</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0318094502512005</v>
+        <v>0.03360803116430896</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -8762,19 +8762,19 @@
         <v>8040</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3876</v>
+        <v>4160</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14720</v>
+        <v>15317</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01646904737680887</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.007940588752887494</v>
+        <v>0.008520822702748032</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03015424104934014</v>
+        <v>0.03137714642388557</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>19</v>
@@ -8783,19 +8783,19 @@
         <v>18629</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>11488</v>
+        <v>11809</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>28509</v>
+        <v>28560</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0167508580181751</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01033030571970565</v>
+        <v>0.01061858085957394</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02563527051136642</v>
+        <v>0.02568089572067579</v>
       </c>
     </row>
     <row r="18">
@@ -8812,19 +8812,19 @@
         <v>24361</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16112</v>
+        <v>15958</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>36176</v>
+        <v>36913</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03904491345112848</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02582399619266412</v>
+        <v>0.02557700944677772</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05798117534558665</v>
+        <v>0.05916328375330983</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -8833,19 +8833,19 @@
         <v>5567</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2715</v>
+        <v>2521</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>10368</v>
+        <v>10965</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01140342306613027</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.005562415084397478</v>
+        <v>0.00516454495298086</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02123911021406344</v>
+        <v>0.02246213397292647</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>31</v>
@@ -8854,19 +8854,19 @@
         <v>29928</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>20723</v>
+        <v>20303</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>43136</v>
+        <v>42856</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0269112046817929</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01863411960362604</v>
+        <v>0.01825683713311264</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03878832652427604</v>
+        <v>0.03853660907919193</v>
       </c>
     </row>
     <row r="19">
@@ -8883,19 +8883,19 @@
         <v>68516</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>54116</v>
+        <v>52788</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>88929</v>
+        <v>84992</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1098149738911088</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08673578119596023</v>
+        <v>0.08460706999684317</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.142532203118062</v>
+        <v>0.1362220593759804</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>47</v>
@@ -8904,19 +8904,19 @@
         <v>31796</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>23322</v>
+        <v>23880</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>42447</v>
+        <v>43546</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.06513366686978603</v>
+        <v>0.06513366686978604</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04777320371020416</v>
+        <v>0.04891677431896067</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0869516636695315</v>
+        <v>0.08920133677608116</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>110</v>
@@ -8925,19 +8925,19 @@
         <v>100312</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>80858</v>
+        <v>83650</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>122103</v>
+        <v>122895</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09020134382707146</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07270754248595489</v>
+        <v>0.07521877463014687</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1097957763188515</v>
+        <v>0.1105073058790476</v>
       </c>
     </row>
     <row r="20">
@@ -8954,19 +8954,19 @@
         <v>509928</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>488689</v>
+        <v>486318</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>530771</v>
+        <v>529237</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8172964514899792</v>
+        <v>0.8172964514899793</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7832539004239055</v>
+        <v>0.7794544894821126</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8507017926340885</v>
+        <v>0.8482428571385846</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>603</v>
@@ -8975,19 +8975,19 @@
         <v>441344</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>429431</v>
+        <v>428199</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>452139</v>
+        <v>451318</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9040727221352902</v>
+        <v>0.9040727221352903</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8796688022558361</v>
+        <v>0.877145227271789</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9261851698835768</v>
+        <v>0.9245040709129979</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1054</v>
@@ -8996,19 +8996,19 @@
         <v>951272</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>926832</v>
+        <v>926072</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>976652</v>
+        <v>975230</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8553883915928434</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8334113813158349</v>
+        <v>0.8327278194227208</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8782103392688012</v>
+        <v>0.8769309359456546</v>
       </c>
     </row>
     <row r="21">
@@ -9100,19 +9100,19 @@
         <v>21963</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14525</v>
+        <v>14461</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>33259</v>
+        <v>32568</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03765436234043639</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02490254510277703</v>
+        <v>0.02479250007278863</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05701978535801496</v>
+        <v>0.05583574218226053</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -9121,19 +9121,19 @@
         <v>7293</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3559</v>
+        <v>3716</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13894</v>
+        <v>13631</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01580260040142516</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.007711328602973805</v>
+        <v>0.008052223494461601</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03010679165836237</v>
+        <v>0.02953707298523875</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>30</v>
@@ -9142,19 +9142,19 @@
         <v>29256</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>20370</v>
+        <v>20071</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>41060</v>
+        <v>41551</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.02800232490701953</v>
+        <v>0.02800232490701954</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01949757485538091</v>
+        <v>0.01921123484705712</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03930037722199227</v>
+        <v>0.03977018859979953</v>
       </c>
     </row>
     <row r="23">
@@ -9171,19 +9171,19 @@
         <v>13457</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7414</v>
+        <v>7122</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>22853</v>
+        <v>23155</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02307057141897592</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01271120958364141</v>
+        <v>0.0122102759309079</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03917914980767299</v>
+        <v>0.03969685511134377</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>12</v>
@@ -9192,19 +9192,19 @@
         <v>8270</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4579</v>
+        <v>4353</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>14151</v>
+        <v>14079</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01792010530016201</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.009921929828454069</v>
+        <v>0.009432980033849264</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03066504367359216</v>
+        <v>0.03050918062904427</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>25</v>
@@ -9213,19 +9213,19 @@
         <v>21727</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>14446</v>
+        <v>14704</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>32190</v>
+        <v>32229</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02079558362087132</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01382654997138744</v>
+        <v>0.01407357977330525</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03081093925511102</v>
+        <v>0.03084828238787507</v>
       </c>
     </row>
     <row r="24">
@@ -9242,19 +9242,19 @@
         <v>28674</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18728</v>
+        <v>17989</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>46774</v>
+        <v>47552</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04915923940272694</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03210777004340284</v>
+        <v>0.03084136398111709</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08018985482069386</v>
+        <v>0.08152336303357038</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>18</v>
@@ -9263,19 +9263,19 @@
         <v>12159</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7242</v>
+        <v>7187</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>18617</v>
+        <v>19558</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02634707332931393</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01569223358299345</v>
+        <v>0.01557451481477106</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04034167500618784</v>
+        <v>0.04238202571836683</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>41</v>
@@ -9284,19 +9284,19 @@
         <v>40833</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>27693</v>
+        <v>28664</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>57345</v>
+        <v>58599</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.0390829864446157</v>
+        <v>0.03908298644461572</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02650664533634674</v>
+        <v>0.02743549096891278</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05488809461699038</v>
+        <v>0.05608845082305447</v>
       </c>
     </row>
     <row r="25">
@@ -9313,19 +9313,19 @@
         <v>81873</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>63127</v>
+        <v>65684</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>101571</v>
+        <v>102440</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1403635965716354</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1082253398235762</v>
+        <v>0.1126105469603684</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.174135218228998</v>
+        <v>0.1756255129509602</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>58</v>
@@ -9334,19 +9334,19 @@
         <v>38510</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>29887</v>
+        <v>29314</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>49190</v>
+        <v>48949</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.08344909231165723</v>
+        <v>0.08344909231165726</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06476420305371335</v>
+        <v>0.06352215425407753</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1065914397098506</v>
+        <v>0.1060705373887617</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>137</v>
@@ -9355,19 +9355,19 @@
         <v>120383</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>101154</v>
+        <v>101043</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>139939</v>
+        <v>141738</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.1152241626369762</v>
+        <v>0.1152241626369763</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09681932254884905</v>
+        <v>0.0967130366561791</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1339421712808979</v>
+        <v>0.1356645347943621</v>
       </c>
     </row>
     <row r="26">
@@ -9384,19 +9384,19 @@
         <v>437322</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>413808</v>
+        <v>412272</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>459439</v>
+        <v>459087</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7497522302662254</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7094387353445845</v>
+        <v>0.7068063214770366</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7876702677196545</v>
+        <v>0.7870665502644956</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>544</v>
@@ -9405,19 +9405,19 @@
         <v>395249</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>380962</v>
+        <v>381262</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>407012</v>
+        <v>406418</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8564811286574415</v>
+        <v>0.8564811286574416</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8255217263041755</v>
+        <v>0.826171799498831</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8819699839610499</v>
+        <v>0.8806839834630888</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>923</v>
@@ -9426,19 +9426,19 @@
         <v>832571</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>807018</v>
+        <v>806081</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>857024</v>
+        <v>860840</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7968949423905171</v>
+        <v>0.7968949423905173</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7724368897685953</v>
+        <v>0.7715400530995864</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8202995709321983</v>
+        <v>0.8239522993183195</v>
       </c>
     </row>
     <row r="27">
@@ -9530,19 +9530,19 @@
         <v>40736</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>29480</v>
+        <v>29868</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>55620</v>
+        <v>57090</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0215332711366529</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01558308840437993</v>
+        <v>0.01578800616400872</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02940077705681272</v>
+        <v>0.03017787003804304</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>14</v>
@@ -9551,19 +9551,19 @@
         <v>10007</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5769</v>
+        <v>5617</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>17451</v>
+        <v>16586</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.006755896494998276</v>
+        <v>0.006755896494998275</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.00389489725334011</v>
+        <v>0.003792300121321282</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01178161610100197</v>
+        <v>0.0111976156944646</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>50</v>
@@ -9572,19 +9572,19 @@
         <v>50743</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>37614</v>
+        <v>38899</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>67360</v>
+        <v>68251</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01504400640491946</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01115139713313814</v>
+        <v>0.01153242970971088</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01997038713749266</v>
+        <v>0.02023466269171848</v>
       </c>
     </row>
     <row r="29">
@@ -9601,19 +9601,19 @@
         <v>30860</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>20862</v>
+        <v>20985</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>44443</v>
+        <v>43807</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01631269010023025</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01102743758667978</v>
+        <v>0.01109279976608214</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02349274692986877</v>
+        <v>0.02315628154366207</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>24</v>
@@ -9622,19 +9622,19 @@
         <v>17646</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>11332</v>
+        <v>12044</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>25870</v>
+        <v>26094</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01191325801318641</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.007650470537817125</v>
+        <v>0.008130990254706285</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01746571641984034</v>
+        <v>0.01761660075845444</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>52</v>
@@ -9643,19 +9643,19 @@
         <v>48506</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>36811</v>
+        <v>36439</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>63505</v>
+        <v>64672</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01438074480044502</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01091359991065012</v>
+        <v>0.01080307633295032</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01882756224066948</v>
+        <v>0.01917341680395606</v>
       </c>
     </row>
     <row r="30">
@@ -9672,19 +9672,19 @@
         <v>61935</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>48349</v>
+        <v>45863</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>84292</v>
+        <v>80955</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03273885275075968</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02555747688302678</v>
+        <v>0.02424308458677135</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04455697971649118</v>
+        <v>0.04279282318030934</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>30</v>
@@ -9693,19 +9693,19 @@
         <v>20851</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>14293</v>
+        <v>13976</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>29075</v>
+        <v>29456</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01407687860618729</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.009649917275373928</v>
+        <v>0.0094358377677415</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01962947501794297</v>
+        <v>0.01988633587145978</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>84</v>
@@ -9714,19 +9714,19 @@
         <v>82786</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>65533</v>
+        <v>66544</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>104965</v>
+        <v>105690</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02454372380684498</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01942882996721432</v>
+        <v>0.01972857896651617</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03111922993774812</v>
+        <v>0.03133427358223222</v>
       </c>
     </row>
     <row r="31">
@@ -9743,19 +9743,19 @@
         <v>191690</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>167019</v>
+        <v>163789</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>222527</v>
+        <v>221375</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1013273806797585</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.08828645216710619</v>
+        <v>0.08657863472812966</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1176275151800975</v>
+        <v>0.1170190046017551</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>138</v>
@@ -9764,19 +9764,19 @@
         <v>97086</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>82256</v>
+        <v>82899</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>115609</v>
+        <v>115530</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06554542431344554</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05553368809309405</v>
+        <v>0.05596755257122785</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07805125677837917</v>
+        <v>0.07799772612255998</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>314</v>
@@ -9785,19 +9785,19 @@
         <v>288776</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>258239</v>
+        <v>257938</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>324610</v>
+        <v>323641</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.08561426565689001</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.07656078619631113</v>
+        <v>0.07647176776408221</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.09623812203162063</v>
+        <v>0.0959507969771398</v>
       </c>
     </row>
     <row r="32">
@@ -9814,19 +9814,19 @@
         <v>1566568</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1525519</v>
+        <v>1529601</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1599038</v>
+        <v>1602970</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8280878053325986</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8063894446310915</v>
+        <v>0.8085468147972898</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8452514805994547</v>
+        <v>0.8473297167534802</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1777</v>
@@ -9835,19 +9835,19 @@
         <v>1335608</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1315932</v>
+        <v>1313687</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1354746</v>
+        <v>1353391</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9017085425721826</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8884249850581379</v>
+        <v>0.8869091179949472</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9146290183529893</v>
+        <v>0.9137143149623059</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3112</v>
@@ -9856,19 +9856,19 @@
         <v>2902176</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2856971</v>
+        <v>2858226</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2939469</v>
+        <v>2941245</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8604172593309005</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8470152485313411</v>
+        <v>0.8473871880878319</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8714736740715677</v>
+        <v>0.8720000007919924</v>
       </c>
     </row>
     <row r="33">
